--- a/INTLINE/data/136/BOI/Primary Income and Financial Account monthly_historical.xlsx
+++ b/INTLINE/data/136/BOI/Primary Income and Financial Account monthly_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WY26"/>
+  <dimension ref="A1:XE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3475,6 +3475,36 @@
       <c r="WY1" s="1" t="inlineStr">
         <is>
           <t>2021-10</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
         </is>
       </c>
     </row>
@@ -4889,34 +4919,52 @@
         <v>-5043.301</v>
       </c>
       <c r="WP2" t="n">
-        <v>1110.12</v>
+        <v>1383.86</v>
       </c>
       <c r="WQ2" t="n">
-        <v>1786.37</v>
+        <v>1463.123</v>
       </c>
       <c r="WR2" t="n">
-        <v>2412.035</v>
+        <v>2042.836</v>
       </c>
       <c r="WS2" t="n">
-        <v>4208.158</v>
+        <v>4831.957</v>
       </c>
       <c r="WT2" t="n">
-        <v>-438.881</v>
+        <v>-334.552</v>
       </c>
       <c r="WU2" t="n">
-        <v>757.564</v>
+        <v>319.867</v>
       </c>
       <c r="WV2" t="n">
-        <v>5076.006</v>
+        <v>9202.305</v>
       </c>
       <c r="WW2" t="n">
-        <v>-331.15</v>
+        <v>-1208.747</v>
       </c>
       <c r="WX2" t="n">
-        <v>5695.294</v>
+        <v>5672.762</v>
       </c>
       <c r="WY2" t="n">
-        <v>-1253.193</v>
+        <v>-1367.152</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>-1455.274</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>-5805.133</v>
+      </c>
+      <c r="XB2" t="n">
+        <v>-4776.448</v>
+      </c>
+      <c r="XC2" t="n">
+        <v>3727.166</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>4589.934</v>
+      </c>
+      <c r="XE2" t="n">
+        <v>-4344.987</v>
       </c>
     </row>
     <row r="3">
@@ -6114,184 +6162,184 @@
         <v>1224.383</v>
       </c>
       <c r="TV3" t="n">
-        <v>1988.871</v>
+        <v>1526.041</v>
       </c>
       <c r="TW3" t="n">
-        <v>-115.732</v>
+        <v>-578.562</v>
       </c>
       <c r="TX3" t="n">
-        <v>4095.93</v>
+        <v>3633.101</v>
       </c>
       <c r="TY3" t="n">
-        <v>-583.204</v>
+        <v>-1046.033</v>
       </c>
       <c r="TZ3" t="n">
-        <v>-3090.075</v>
+        <v>-3552.904</v>
       </c>
       <c r="UA3" t="n">
-        <v>-5658.796</v>
+        <v>-6121.625</v>
       </c>
       <c r="UB3" t="n">
-        <v>-2130.479</v>
+        <v>-2593.308</v>
       </c>
       <c r="UC3" t="n">
-        <v>3642.911</v>
+        <v>3180.082</v>
       </c>
       <c r="UD3" t="n">
-        <v>-8155.45</v>
+        <v>-8618.279</v>
       </c>
       <c r="UE3" t="n">
-        <v>2300.378</v>
+        <v>1837.548</v>
       </c>
       <c r="UF3" t="n">
-        <v>-645.573</v>
+        <v>-1108.402</v>
       </c>
       <c r="UG3" t="n">
-        <v>-3968.505</v>
+        <v>-4431.335</v>
       </c>
       <c r="UH3" t="n">
-        <v>-5665.551</v>
+        <v>-5746.173</v>
       </c>
       <c r="UI3" t="n">
-        <v>5948.58</v>
+        <v>5867.958</v>
       </c>
       <c r="UJ3" t="n">
-        <v>2269.506</v>
+        <v>2188.884</v>
       </c>
       <c r="UK3" t="n">
-        <v>-6595.971</v>
+        <v>-6676.593</v>
       </c>
       <c r="UL3" t="n">
-        <v>3592.536</v>
+        <v>3511.914</v>
       </c>
       <c r="UM3" t="n">
-        <v>5859.291</v>
+        <v>5778.669</v>
       </c>
       <c r="UN3" t="n">
-        <v>-10583.707</v>
+        <v>-10664.329</v>
       </c>
       <c r="UO3" t="n">
-        <v>-7437.191</v>
+        <v>-7517.813</v>
       </c>
       <c r="UP3" t="n">
-        <v>-3178.029</v>
+        <v>-3258.651</v>
       </c>
       <c r="UQ3" t="n">
-        <v>13861.112</v>
+        <v>13780.49</v>
       </c>
       <c r="UR3" t="n">
-        <v>9816.632</v>
+        <v>9736.01</v>
       </c>
       <c r="US3" t="n">
-        <v>-7196.142</v>
+        <v>-7276.764</v>
       </c>
       <c r="UT3" t="n">
-        <v>3233.281</v>
+        <v>3281.609</v>
       </c>
       <c r="UU3" t="n">
-        <v>8110.46</v>
+        <v>8158.788</v>
       </c>
       <c r="UV3" t="n">
-        <v>8922.234</v>
+        <v>8970.562</v>
       </c>
       <c r="UW3" t="n">
-        <v>-10300.616</v>
+        <v>-10252.289</v>
       </c>
       <c r="UX3" t="n">
-        <v>264.233</v>
+        <v>312.56</v>
       </c>
       <c r="UY3" t="n">
-        <v>2378.877</v>
+        <v>2427.205</v>
       </c>
       <c r="UZ3" t="n">
-        <v>2822.584</v>
+        <v>2870.911</v>
       </c>
       <c r="VA3" t="n">
-        <v>-3088.537</v>
+        <v>-3040.209</v>
       </c>
       <c r="VB3" t="n">
-        <v>2460.006</v>
+        <v>2508.334</v>
       </c>
       <c r="VC3" t="n">
-        <v>4117.068</v>
+        <v>4165.396</v>
       </c>
       <c r="VD3" t="n">
-        <v>5200.424</v>
+        <v>5248.752</v>
       </c>
       <c r="VE3" t="n">
-        <v>2664.98</v>
+        <v>2713.308</v>
       </c>
       <c r="VF3" t="n">
-        <v>476.427</v>
+        <v>57.178</v>
       </c>
       <c r="VG3" t="n">
-        <v>4592.21</v>
+        <v>4172.961</v>
       </c>
       <c r="VH3" t="n">
-        <v>5987.459</v>
+        <v>5568.21</v>
       </c>
       <c r="VI3" t="n">
-        <v>475.757</v>
+        <v>56.508</v>
       </c>
       <c r="VJ3" t="n">
-        <v>11071.203</v>
+        <v>10651.954</v>
       </c>
       <c r="VK3" t="n">
-        <v>3045.453</v>
+        <v>2626.204</v>
       </c>
       <c r="VL3" t="n">
-        <v>6656.19</v>
+        <v>6236.941</v>
       </c>
       <c r="VM3" t="n">
-        <v>2453.653</v>
+        <v>2034.405</v>
       </c>
       <c r="VN3" t="n">
-        <v>-4314.758</v>
+        <v>-4734.007</v>
       </c>
       <c r="VO3" t="n">
-        <v>-388.176</v>
+        <v>-807.425</v>
       </c>
       <c r="VP3" t="n">
-        <v>1681.928</v>
+        <v>1262.679</v>
       </c>
       <c r="VQ3" t="n">
-        <v>-7329.361</v>
+        <v>-7748.61</v>
       </c>
       <c r="VR3" t="n">
-        <v>-3381.39</v>
+        <v>-2826.161</v>
       </c>
       <c r="VS3" t="n">
-        <v>11668.36</v>
+        <v>12223.589</v>
       </c>
       <c r="VT3" t="n">
-        <v>-1988.848</v>
+        <v>-1433.619</v>
       </c>
       <c r="VU3" t="n">
-        <v>3673.535</v>
+        <v>4228.764</v>
       </c>
       <c r="VV3" t="n">
-        <v>1221.217</v>
+        <v>1776.447</v>
       </c>
       <c r="VW3" t="n">
-        <v>4430.588</v>
+        <v>4985.818</v>
       </c>
       <c r="VX3" t="n">
-        <v>-4663.108</v>
+        <v>-4107.878</v>
       </c>
       <c r="VY3" t="n">
-        <v>13820.824</v>
+        <v>14376.054</v>
       </c>
       <c r="VZ3" t="n">
-        <v>960.749</v>
+        <v>1515.978</v>
       </c>
       <c r="WA3" t="n">
-        <v>-6370.067</v>
+        <v>-5814.838</v>
       </c>
       <c r="WB3" t="n">
-        <v>2941.456</v>
+        <v>3496.685</v>
       </c>
       <c r="WC3" t="n">
-        <v>-7368.625</v>
+        <v>-6813.396</v>
       </c>
       <c r="WD3" t="n">
         <v>10891.112</v>
@@ -6330,34 +6378,52 @@
         <v>-5827.255</v>
       </c>
       <c r="WP3" t="n">
-        <v>-11333.417</v>
+        <v>-12314.791</v>
       </c>
       <c r="WQ3" t="n">
-        <v>-7970.309</v>
+        <v>-7549.824</v>
       </c>
       <c r="WR3" t="n">
-        <v>14563.106</v>
+        <v>14986.035</v>
       </c>
       <c r="WS3" t="n">
-        <v>2070.313</v>
+        <v>1792.23</v>
       </c>
       <c r="WT3" t="n">
-        <v>4032.574</v>
+        <v>4200.531</v>
       </c>
       <c r="WU3" t="n">
-        <v>5940.506</v>
+        <v>5329.141</v>
       </c>
       <c r="WV3" t="n">
-        <v>793.093</v>
+        <v>1961.835</v>
       </c>
       <c r="WW3" t="n">
-        <v>793.3099999999999</v>
+        <v>1018.171</v>
       </c>
       <c r="WX3" t="n">
-        <v>371.661</v>
+        <v>1332.937</v>
       </c>
       <c r="WY3" t="n">
-        <v>11873.058</v>
+        <v>9777.386</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>-679.552</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>-174.507</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>-3596.689</v>
+      </c>
+      <c r="XC3" t="n">
+        <v>3883.894</v>
+      </c>
+      <c r="XD3" t="n">
+        <v>15590.117</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>998.027</v>
       </c>
     </row>
     <row r="4">
@@ -7555,184 +7621,184 @@
         <v>8275.030000000001</v>
       </c>
       <c r="TV4" t="n">
-        <v>9125.329</v>
+        <v>8775.786</v>
       </c>
       <c r="TW4" t="n">
-        <v>31307.503</v>
+        <v>30957.96</v>
       </c>
       <c r="TX4" t="n">
-        <v>22184.422</v>
+        <v>21834.88</v>
       </c>
       <c r="TY4" t="n">
-        <v>17349.044</v>
+        <v>16999.501</v>
       </c>
       <c r="TZ4" t="n">
-        <v>7781.044</v>
+        <v>7431.501</v>
       </c>
       <c r="UA4" t="n">
-        <v>14866.894</v>
+        <v>14517.352</v>
       </c>
       <c r="UB4" t="n">
-        <v>6207.453</v>
+        <v>5857.91</v>
       </c>
       <c r="UC4" t="n">
-        <v>8678.139999999999</v>
+        <v>8328.597</v>
       </c>
       <c r="UD4" t="n">
-        <v>2722.646</v>
+        <v>2373.103</v>
       </c>
       <c r="UE4" t="n">
-        <v>-5301.228</v>
+        <v>-5650.77</v>
       </c>
       <c r="UF4" t="n">
-        <v>2004.824</v>
+        <v>1655.281</v>
       </c>
       <c r="UG4" t="n">
-        <v>10911.092</v>
+        <v>10561.549</v>
       </c>
       <c r="UH4" t="n">
-        <v>4913.844</v>
+        <v>5301.507</v>
       </c>
       <c r="UI4" t="n">
-        <v>4265.964</v>
+        <v>4653.627</v>
       </c>
       <c r="UJ4" t="n">
-        <v>16865.819</v>
+        <v>17253.482</v>
       </c>
       <c r="UK4" t="n">
-        <v>5097.454</v>
+        <v>5485.117</v>
       </c>
       <c r="UL4" t="n">
-        <v>16524.057</v>
+        <v>16911.719</v>
       </c>
       <c r="UM4" t="n">
-        <v>-79.907</v>
+        <v>307.755</v>
       </c>
       <c r="UN4" t="n">
-        <v>2165.572</v>
+        <v>2553.235</v>
       </c>
       <c r="UO4" t="n">
-        <v>7388.845</v>
+        <v>7776.508</v>
       </c>
       <c r="UP4" t="n">
-        <v>10948.094</v>
+        <v>11335.757</v>
       </c>
       <c r="UQ4" t="n">
-        <v>-3794.686</v>
+        <v>-3407.023</v>
       </c>
       <c r="UR4" t="n">
-        <v>-9057.921</v>
+        <v>-8670.258</v>
       </c>
       <c r="US4" t="n">
-        <v>9288.712</v>
+        <v>9676.374</v>
       </c>
       <c r="UT4" t="n">
-        <v>2695.117</v>
+        <v>2619.098</v>
       </c>
       <c r="UU4" t="n">
-        <v>16386.307</v>
+        <v>16310.288</v>
       </c>
       <c r="UV4" t="n">
-        <v>22765.491</v>
+        <v>22689.472</v>
       </c>
       <c r="UW4" t="n">
-        <v>6846.327</v>
+        <v>6770.308</v>
       </c>
       <c r="UX4" t="n">
-        <v>10528.147</v>
+        <v>10452.127</v>
       </c>
       <c r="UY4" t="n">
-        <v>19599.669</v>
+        <v>19523.65</v>
       </c>
       <c r="UZ4" t="n">
-        <v>2296.973</v>
+        <v>2220.953</v>
       </c>
       <c r="VA4" t="n">
-        <v>12389.46</v>
+        <v>12313.441</v>
       </c>
       <c r="VB4" t="n">
-        <v>9380.325000000001</v>
+        <v>9304.306</v>
       </c>
       <c r="VC4" t="n">
-        <v>4226.39</v>
+        <v>4150.371</v>
       </c>
       <c r="VD4" t="n">
-        <v>10854.189</v>
+        <v>10778.17</v>
       </c>
       <c r="VE4" t="n">
-        <v>4193.322</v>
+        <v>4117.303</v>
       </c>
       <c r="VF4" t="n">
-        <v>7224.859</v>
+        <v>7267.138</v>
       </c>
       <c r="VG4" t="n">
-        <v>11879.157</v>
+        <v>11921.435</v>
       </c>
       <c r="VH4" t="n">
-        <v>14901.059</v>
+        <v>14943.338</v>
       </c>
       <c r="VI4" t="n">
-        <v>6891.97</v>
+        <v>6934.249</v>
       </c>
       <c r="VJ4" t="n">
-        <v>4113.503</v>
+        <v>4155.782</v>
       </c>
       <c r="VK4" t="n">
-        <v>2545.748</v>
+        <v>2588.027</v>
       </c>
       <c r="VL4" t="n">
-        <v>2332.935</v>
+        <v>2375.214</v>
       </c>
       <c r="VM4" t="n">
-        <v>13194.929</v>
+        <v>13237.208</v>
       </c>
       <c r="VN4" t="n">
-        <v>10612.896</v>
+        <v>10655.174</v>
       </c>
       <c r="VO4" t="n">
-        <v>-6436.478</v>
+        <v>-6394.199</v>
       </c>
       <c r="VP4" t="n">
-        <v>-3609.396</v>
+        <v>-3567.117</v>
       </c>
       <c r="VQ4" t="n">
-        <v>-5428.01</v>
+        <v>-5385.731</v>
       </c>
       <c r="VR4" t="n">
-        <v>-6286.495</v>
+        <v>-6165.127</v>
       </c>
       <c r="VS4" t="n">
-        <v>5246.581</v>
+        <v>5367.95</v>
       </c>
       <c r="VT4" t="n">
-        <v>-2112.79</v>
+        <v>-1991.422</v>
       </c>
       <c r="VU4" t="n">
-        <v>-6013.305</v>
+        <v>-5891.937</v>
       </c>
       <c r="VV4" t="n">
-        <v>8340.072</v>
+        <v>8461.440000000001</v>
       </c>
       <c r="VW4" t="n">
-        <v>4855.488</v>
+        <v>4976.856</v>
       </c>
       <c r="VX4" t="n">
-        <v>6435.819</v>
+        <v>6557.187</v>
       </c>
       <c r="VY4" t="n">
-        <v>10531.589</v>
+        <v>10652.957</v>
       </c>
       <c r="VZ4" t="n">
-        <v>10822.432</v>
+        <v>10943.8</v>
       </c>
       <c r="WA4" t="n">
-        <v>3909.761</v>
+        <v>4031.129</v>
       </c>
       <c r="WB4" t="n">
-        <v>10143.053</v>
+        <v>10264.421</v>
       </c>
       <c r="WC4" t="n">
-        <v>22663.659</v>
+        <v>22785.027</v>
       </c>
       <c r="WD4" t="n">
         <v>967.397</v>
@@ -7771,34 +7837,52 @@
         <v>24206.091</v>
       </c>
       <c r="WP4" t="n">
-        <v>2193.714</v>
+        <v>2247.112</v>
       </c>
       <c r="WQ4" t="n">
-        <v>14542.633</v>
+        <v>14513.548</v>
       </c>
       <c r="WR4" t="n">
-        <v>17026.66</v>
+        <v>16934.971</v>
       </c>
       <c r="WS4" t="n">
-        <v>-1090.422</v>
+        <v>-1197.996</v>
       </c>
       <c r="WT4" t="n">
-        <v>15842.712</v>
+        <v>15846.802</v>
       </c>
       <c r="WU4" t="n">
-        <v>18049.877</v>
+        <v>18106.916</v>
       </c>
       <c r="WV4" t="n">
-        <v>807.082</v>
+        <v>2304.833</v>
       </c>
       <c r="WW4" t="n">
-        <v>8097.157</v>
+        <v>8351.396000000001</v>
       </c>
       <c r="WX4" t="n">
-        <v>14527.142</v>
+        <v>16828.611</v>
       </c>
       <c r="WY4" t="n">
-        <v>6264.392</v>
+        <v>5176.903</v>
+      </c>
+      <c r="WZ4" t="n">
+        <v>16465.034</v>
+      </c>
+      <c r="XA4" t="n">
+        <v>8333.605</v>
+      </c>
+      <c r="XB4" t="n">
+        <v>21256.381</v>
+      </c>
+      <c r="XC4" t="n">
+        <v>7185.771</v>
+      </c>
+      <c r="XD4" t="n">
+        <v>8054.034</v>
+      </c>
+      <c r="XE4" t="n">
+        <v>1244.348</v>
       </c>
     </row>
     <row r="5">
@@ -9212,34 +9296,52 @@
         <v>-7811.609</v>
       </c>
       <c r="WP5" t="n">
-        <v>-207.389</v>
+        <v>-220.679</v>
       </c>
       <c r="WQ5" t="n">
-        <v>2845.704</v>
+        <v>2542.534</v>
       </c>
       <c r="WR5" t="n">
-        <v>981.213</v>
+        <v>965.867</v>
       </c>
       <c r="WS5" t="n">
-        <v>-923.792</v>
+        <v>1375.144</v>
       </c>
       <c r="WT5" t="n">
-        <v>30.663</v>
+        <v>-520.066</v>
       </c>
       <c r="WU5" t="n">
-        <v>3907.324</v>
+        <v>4185.511</v>
       </c>
       <c r="WV5" t="n">
-        <v>7696.38</v>
+        <v>2189.36</v>
       </c>
       <c r="WW5" t="n">
-        <v>2176.785</v>
+        <v>1870.597</v>
       </c>
       <c r="WX5" t="n">
-        <v>736.24</v>
+        <v>-858.245</v>
       </c>
       <c r="WY5" t="n">
-        <v>2988.083</v>
+        <v>1683.768</v>
+      </c>
+      <c r="WZ5" t="n">
+        <v>-1120.716</v>
+      </c>
+      <c r="XA5" t="n">
+        <v>-113.296</v>
+      </c>
+      <c r="XB5" t="n">
+        <v>6096.109</v>
+      </c>
+      <c r="XC5" t="n">
+        <v>1227.711</v>
+      </c>
+      <c r="XD5" t="n">
+        <v>1707.648</v>
+      </c>
+      <c r="XE5" t="n">
+        <v>1312.574</v>
       </c>
     </row>
     <row r="6">
@@ -10653,34 +10755,52 @@
         <v>7749.509</v>
       </c>
       <c r="WP6" t="n">
-        <v>-23924.148</v>
+        <v>-23374.257</v>
       </c>
       <c r="WQ6" t="n">
-        <v>-7846.574</v>
+        <v>-9739.404</v>
       </c>
       <c r="WR6" t="n">
-        <v>25661.886</v>
+        <v>26106.368</v>
       </c>
       <c r="WS6" t="n">
-        <v>-10311.923</v>
+        <v>-9787.299999999999</v>
       </c>
       <c r="WT6" t="n">
-        <v>24213.802</v>
+        <v>25064.657</v>
       </c>
       <c r="WU6" t="n">
-        <v>10905.146</v>
+        <v>11086.564</v>
       </c>
       <c r="WV6" t="n">
-        <v>-14869.205</v>
+        <v>-14324.577</v>
       </c>
       <c r="WW6" t="n">
-        <v>27000.209</v>
+        <v>26978.47</v>
       </c>
       <c r="WX6" t="n">
-        <v>45084.962</v>
+        <v>43913.932</v>
       </c>
       <c r="WY6" t="n">
-        <v>18548.373</v>
+        <v>18073.614</v>
+      </c>
+      <c r="WZ6" t="n">
+        <v>26381.532</v>
+      </c>
+      <c r="XA6" t="n">
+        <v>20981.675</v>
+      </c>
+      <c r="XB6" t="n">
+        <v>14057.567</v>
+      </c>
+      <c r="XC6" t="n">
+        <v>18959.902</v>
+      </c>
+      <c r="XD6" t="n">
+        <v>29109.298</v>
+      </c>
+      <c r="XE6" t="n">
+        <v>22436.553</v>
       </c>
     </row>
     <row r="7">
@@ -12094,34 +12214,52 @@
         <v>10359.019</v>
       </c>
       <c r="WP7" t="n">
-        <v>10393.65</v>
+        <v>10863.268</v>
       </c>
       <c r="WQ7" t="n">
-        <v>10386.119</v>
+        <v>10461.271</v>
       </c>
       <c r="WR7" t="n">
-        <v>8377.394</v>
+        <v>8440.547</v>
       </c>
       <c r="WS7" t="n">
-        <v>7208.88</v>
+        <v>7123.935</v>
       </c>
       <c r="WT7" t="n">
-        <v>-6275.558</v>
+        <v>-6202.987</v>
       </c>
       <c r="WU7" t="n">
-        <v>8089.405</v>
+        <v>8058.501</v>
       </c>
       <c r="WV7" t="n">
-        <v>15753.815</v>
+        <v>15756.838</v>
       </c>
       <c r="WW7" t="n">
-        <v>-8780.929</v>
+        <v>-8303.826999999999</v>
       </c>
       <c r="WX7" t="n">
-        <v>-22118.597</v>
+        <v>-21652.121</v>
       </c>
       <c r="WY7" t="n">
-        <v>-4225.564</v>
+        <v>-4875.116</v>
+      </c>
+      <c r="WZ7" t="n">
+        <v>-12483.649</v>
+      </c>
+      <c r="XA7" t="n">
+        <v>-7168.542</v>
+      </c>
+      <c r="XB7" t="n">
+        <v>-7402.412</v>
+      </c>
+      <c r="XC7" t="n">
+        <v>-3688.876</v>
+      </c>
+      <c r="XD7" t="n">
+        <v>4382.731</v>
+      </c>
+      <c r="XE7" t="n">
+        <v>-22391.425</v>
       </c>
     </row>
     <row r="8">
@@ -13319,184 +13457,184 @@
         <v>-501.565</v>
       </c>
       <c r="TV8" t="n">
-        <v>56.836</v>
+        <v>58.285</v>
       </c>
       <c r="TW8" t="n">
-        <v>-85.301</v>
+        <v>-83.852</v>
       </c>
       <c r="TX8" t="n">
-        <v>-1997.05</v>
+        <v>-1995.601</v>
       </c>
       <c r="TY8" t="n">
-        <v>2073.582</v>
+        <v>2075.03</v>
       </c>
       <c r="TZ8" t="n">
-        <v>201.835</v>
+        <v>203.284</v>
       </c>
       <c r="UA8" t="n">
-        <v>-507.837</v>
+        <v>-506.388</v>
       </c>
       <c r="UB8" t="n">
-        <v>-202.175</v>
+        <v>-200.726</v>
       </c>
       <c r="UC8" t="n">
-        <v>131.125</v>
+        <v>132.574</v>
       </c>
       <c r="UD8" t="n">
-        <v>476.033</v>
+        <v>477.482</v>
       </c>
       <c r="UE8" t="n">
-        <v>-1186.163</v>
+        <v>-1184.714</v>
       </c>
       <c r="UF8" t="n">
-        <v>161.033</v>
+        <v>162.482</v>
       </c>
       <c r="UG8" t="n">
-        <v>1994.301</v>
+        <v>1995.75</v>
       </c>
       <c r="UH8" t="n">
-        <v>1343.603</v>
+        <v>1343.04</v>
       </c>
       <c r="UI8" t="n">
-        <v>1272.251</v>
+        <v>1271.688</v>
       </c>
       <c r="UJ8" t="n">
-        <v>47.598</v>
+        <v>47.034</v>
       </c>
       <c r="UK8" t="n">
-        <v>-1934.246</v>
+        <v>-1934.809</v>
       </c>
       <c r="UL8" t="n">
-        <v>-555.309</v>
+        <v>-555.872</v>
       </c>
       <c r="UM8" t="n">
-        <v>94.348</v>
+        <v>93.78400000000001</v>
       </c>
       <c r="UN8" t="n">
-        <v>866.27</v>
+        <v>865.707</v>
       </c>
       <c r="UO8" t="n">
-        <v>-197.542</v>
+        <v>-198.105</v>
       </c>
       <c r="UP8" t="n">
-        <v>91.949</v>
+        <v>91.386</v>
       </c>
       <c r="UQ8" t="n">
-        <v>-919.088</v>
+        <v>-919.651</v>
       </c>
       <c r="UR8" t="n">
-        <v>522.725</v>
+        <v>522.162</v>
       </c>
       <c r="US8" t="n">
-        <v>-3912.641</v>
+        <v>-3913.205</v>
       </c>
       <c r="UT8" t="n">
-        <v>336.644</v>
+        <v>320.149</v>
       </c>
       <c r="UU8" t="n">
-        <v>-536.851</v>
+        <v>-553.347</v>
       </c>
       <c r="UV8" t="n">
-        <v>-193.338</v>
+        <v>-209.834</v>
       </c>
       <c r="UW8" t="n">
-        <v>-2209.991</v>
+        <v>-2226.487</v>
       </c>
       <c r="UX8" t="n">
-        <v>-409.372</v>
+        <v>-425.868</v>
       </c>
       <c r="UY8" t="n">
-        <v>885.095</v>
+        <v>868.599</v>
       </c>
       <c r="UZ8" t="n">
-        <v>-223.919</v>
+        <v>-240.415</v>
       </c>
       <c r="VA8" t="n">
-        <v>-821.495</v>
+        <v>-837.991</v>
       </c>
       <c r="VB8" t="n">
-        <v>-349.763</v>
+        <v>-366.259</v>
       </c>
       <c r="VC8" t="n">
-        <v>-1753.881</v>
+        <v>-1770.377</v>
       </c>
       <c r="VD8" t="n">
-        <v>-2067.03</v>
+        <v>-2083.526</v>
       </c>
       <c r="VE8" t="n">
-        <v>108.771</v>
+        <v>92.27500000000001</v>
       </c>
       <c r="VF8" t="n">
-        <v>102.126</v>
+        <v>96.479</v>
       </c>
       <c r="VG8" t="n">
-        <v>-400.438</v>
+        <v>-406.085</v>
       </c>
       <c r="VH8" t="n">
-        <v>163.359</v>
+        <v>157.712</v>
       </c>
       <c r="VI8" t="n">
-        <v>-332.846</v>
+        <v>-338.493</v>
       </c>
       <c r="VJ8" t="n">
-        <v>-764.03</v>
+        <v>-769.677</v>
       </c>
       <c r="VK8" t="n">
-        <v>-115.101</v>
+        <v>-120.748</v>
       </c>
       <c r="VL8" t="n">
-        <v>-753.274</v>
+        <v>-758.921</v>
       </c>
       <c r="VM8" t="n">
-        <v>-910.8630000000001</v>
+        <v>-916.51</v>
       </c>
       <c r="VN8" t="n">
-        <v>-363.855</v>
+        <v>-369.502</v>
       </c>
       <c r="VO8" t="n">
-        <v>-603.259</v>
+        <v>-608.9059999999999</v>
       </c>
       <c r="VP8" t="n">
-        <v>-183.996</v>
+        <v>-189.643</v>
       </c>
       <c r="VQ8" t="n">
-        <v>1470.929</v>
+        <v>1465.282</v>
       </c>
       <c r="VR8" t="n">
-        <v>57.99</v>
+        <v>63.507</v>
       </c>
       <c r="VS8" t="n">
-        <v>114.958</v>
+        <v>120.474</v>
       </c>
       <c r="VT8" t="n">
-        <v>238.587</v>
+        <v>244.103</v>
       </c>
       <c r="VU8" t="n">
-        <v>291.27</v>
+        <v>296.786</v>
       </c>
       <c r="VV8" t="n">
-        <v>537.1369999999999</v>
+        <v>542.653</v>
       </c>
       <c r="VW8" t="n">
-        <v>537.557</v>
+        <v>543.073</v>
       </c>
       <c r="VX8" t="n">
-        <v>317.727</v>
+        <v>323.243</v>
       </c>
       <c r="VY8" t="n">
-        <v>196.057</v>
+        <v>201.573</v>
       </c>
       <c r="VZ8" t="n">
-        <v>-141.151</v>
+        <v>-135.635</v>
       </c>
       <c r="WA8" t="n">
-        <v>-515.7190000000001</v>
+        <v>-510.202</v>
       </c>
       <c r="WB8" t="n">
-        <v>259.207</v>
+        <v>264.723</v>
       </c>
       <c r="WC8" t="n">
-        <v>628.564</v>
+        <v>634.08</v>
       </c>
       <c r="WD8" t="n">
         <v>560.26</v>
@@ -13535,34 +13673,52 @@
         <v>558.558</v>
       </c>
       <c r="WP8" t="n">
-        <v>-485.616</v>
+        <v>-444.539</v>
       </c>
       <c r="WQ8" t="n">
-        <v>-382.62</v>
+        <v>-375.282</v>
       </c>
       <c r="WR8" t="n">
-        <v>134.97</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="WS8" t="n">
-        <v>-76.017</v>
+        <v>-141.645</v>
       </c>
       <c r="WT8" t="n">
-        <v>-225.967</v>
+        <v>-608.778</v>
       </c>
       <c r="WU8" t="n">
-        <v>-75.425</v>
+        <v>147.09</v>
       </c>
       <c r="WV8" t="n">
-        <v>780.986</v>
+        <v>656.409</v>
       </c>
       <c r="WW8" t="n">
-        <v>-311.803</v>
+        <v>-83.535</v>
       </c>
       <c r="WX8" t="n">
-        <v>-490.358</v>
+        <v>-521.865</v>
       </c>
       <c r="WY8" t="n">
-        <v>551.236</v>
+        <v>264.462</v>
+      </c>
+      <c r="WZ8" t="n">
+        <v>219.699</v>
+      </c>
+      <c r="XA8" t="n">
+        <v>863.2859999999999</v>
+      </c>
+      <c r="XB8" t="n">
+        <v>-7475.67</v>
+      </c>
+      <c r="XC8" t="n">
+        <v>-386.463</v>
+      </c>
+      <c r="XD8" t="n">
+        <v>769.426</v>
+      </c>
+      <c r="XE8" t="n">
+        <v>764.759</v>
       </c>
     </row>
     <row r="9">
@@ -15372,70 +15528,88 @@
         <v>633.9299999999999</v>
       </c>
       <c r="WD9" t="n">
-        <v>641.388</v>
+        <v>654.703</v>
       </c>
       <c r="WE9" t="n">
-        <v>645.721</v>
+        <v>659.34</v>
       </c>
       <c r="WF9" t="n">
-        <v>498.525</v>
+        <v>509.802</v>
       </c>
       <c r="WG9" t="n">
-        <v>439.336</v>
+        <v>450.673</v>
       </c>
       <c r="WH9" t="n">
-        <v>433.45</v>
+        <v>444.873</v>
       </c>
       <c r="WI9" t="n">
-        <v>462.828</v>
+        <v>475.089</v>
       </c>
       <c r="WJ9" t="n">
-        <v>507.346</v>
+        <v>520.7</v>
       </c>
       <c r="WK9" t="n">
-        <v>602.862</v>
+        <v>616.165</v>
       </c>
       <c r="WL9" t="n">
-        <v>597.686</v>
+        <v>612.075</v>
       </c>
       <c r="WM9" t="n">
-        <v>593.5549999999999</v>
+        <v>607.288</v>
       </c>
       <c r="WN9" t="n">
-        <v>566.519</v>
+        <v>580.191</v>
       </c>
       <c r="WO9" t="n">
-        <v>554.037</v>
+        <v>567.456</v>
       </c>
       <c r="WP9" t="n">
-        <v>523.849</v>
+        <v>554.748</v>
       </c>
       <c r="WQ9" t="n">
-        <v>523.162</v>
+        <v>554.241</v>
       </c>
       <c r="WR9" t="n">
-        <v>502.03</v>
+        <v>532.901</v>
       </c>
       <c r="WS9" t="n">
-        <v>507.232</v>
+        <v>537.86</v>
       </c>
       <c r="WT9" t="n">
-        <v>510.619</v>
+        <v>542.83</v>
       </c>
       <c r="WU9" t="n">
-        <v>514.336</v>
+        <v>546.003</v>
       </c>
       <c r="WV9" t="n">
-        <v>516.9109999999999</v>
+        <v>562.876</v>
       </c>
       <c r="WW9" t="n">
-        <v>524.821</v>
+        <v>572.077</v>
       </c>
       <c r="WX9" t="n">
-        <v>523.973</v>
+        <v>571.889</v>
       </c>
       <c r="WY9" t="n">
-        <v>546.448</v>
+        <v>578.913</v>
+      </c>
+      <c r="WZ9" t="n">
+        <v>592.052</v>
+      </c>
+      <c r="XA9" t="n">
+        <v>599.712</v>
+      </c>
+      <c r="XB9" t="n">
+        <v>601.772</v>
+      </c>
+      <c r="XC9" t="n">
+        <v>601.543</v>
+      </c>
+      <c r="XD9" t="n">
+        <v>622.657</v>
+      </c>
+      <c r="XE9" t="n">
+        <v>631.447</v>
       </c>
     </row>
     <row r="10">
@@ -17281,34 +17455,52 @@
         <v>2492.411</v>
       </c>
       <c r="WP10" t="n">
-        <v>1257.261</v>
+        <v>1255.85</v>
       </c>
       <c r="WQ10" t="n">
-        <v>1236.464</v>
+        <v>1235.053</v>
       </c>
       <c r="WR10" t="n">
-        <v>1284.25</v>
+        <v>1281.832</v>
       </c>
       <c r="WS10" t="n">
-        <v>1256.626</v>
+        <v>1316.33</v>
       </c>
       <c r="WT10" t="n">
-        <v>1252.379</v>
+        <v>1311.816</v>
       </c>
       <c r="WU10" t="n">
-        <v>1297.785</v>
+        <v>1344.661</v>
       </c>
       <c r="WV10" t="n">
-        <v>1719.541</v>
+        <v>1314.341</v>
       </c>
       <c r="WW10" t="n">
-        <v>1254.036</v>
+        <v>1308.222</v>
       </c>
       <c r="WX10" t="n">
-        <v>1349.837</v>
+        <v>1402.466</v>
       </c>
       <c r="WY10" t="n">
-        <v>1242.583</v>
+        <v>1236.098</v>
+      </c>
+      <c r="WZ10" t="n">
+        <v>1301.492</v>
+      </c>
+      <c r="XA10" t="n">
+        <v>1277.856</v>
+      </c>
+      <c r="XB10" t="n">
+        <v>1237.303</v>
+      </c>
+      <c r="XC10" t="n">
+        <v>1237.012</v>
+      </c>
+      <c r="XD10" t="n">
+        <v>1347.869</v>
+      </c>
+      <c r="XE10" t="n">
+        <v>1253.897</v>
       </c>
     </row>
     <row r="11">
@@ -19154,34 +19346,52 @@
         <v>250.743</v>
       </c>
       <c r="WP11" t="n">
-        <v>261.405</v>
+        <v>250.666</v>
       </c>
       <c r="WQ11" t="n">
-        <v>262.444</v>
+        <v>316.556</v>
       </c>
       <c r="WR11" t="n">
-        <v>261.851</v>
+        <v>250.892</v>
       </c>
       <c r="WS11" t="n">
-        <v>249.071</v>
+        <v>250.195</v>
       </c>
       <c r="WT11" t="n">
-        <v>251.605</v>
+        <v>252.59</v>
       </c>
       <c r="WU11" t="n">
-        <v>247.968</v>
+        <v>249.161</v>
       </c>
       <c r="WV11" t="n">
-        <v>121.054</v>
+        <v>260.677</v>
       </c>
       <c r="WW11" t="n">
-        <v>265.344</v>
+        <v>259.091</v>
       </c>
       <c r="WX11" t="n">
-        <v>265.889</v>
+        <v>259.092</v>
       </c>
       <c r="WY11" t="n">
-        <v>271.295</v>
+        <v>265.312</v>
+      </c>
+      <c r="WZ11" t="n">
+        <v>266.714</v>
+      </c>
+      <c r="XA11" t="n">
+        <v>264.921</v>
+      </c>
+      <c r="XB11" t="n">
+        <v>265.379</v>
+      </c>
+      <c r="XC11" t="n">
+        <v>271.422</v>
+      </c>
+      <c r="XD11" t="n">
+        <v>265.476</v>
+      </c>
+      <c r="XE11" t="n">
+        <v>266.035</v>
       </c>
     </row>
     <row r="12">
@@ -21027,34 +21237,52 @@
         <v>2472.949</v>
       </c>
       <c r="WP12" t="n">
-        <v>3067.627</v>
+        <v>3112.619</v>
       </c>
       <c r="WQ12" t="n">
-        <v>2290.806</v>
+        <v>2294.775</v>
       </c>
       <c r="WR12" t="n">
-        <v>2611.876</v>
+        <v>2625.798</v>
       </c>
       <c r="WS12" t="n">
-        <v>2668.686</v>
+        <v>2697.303</v>
       </c>
       <c r="WT12" t="n">
-        <v>2913.438</v>
+        <v>2937.058</v>
       </c>
       <c r="WU12" t="n">
-        <v>2494.894</v>
+        <v>2509.611</v>
       </c>
       <c r="WV12" t="n">
-        <v>2419.615</v>
+        <v>2440.144</v>
       </c>
       <c r="WW12" t="n">
-        <v>2413.85</v>
+        <v>2417.194</v>
       </c>
       <c r="WX12" t="n">
-        <v>2729.835</v>
+        <v>2739.091</v>
       </c>
       <c r="WY12" t="n">
-        <v>2451.928</v>
+        <v>2467.735</v>
+      </c>
+      <c r="WZ12" t="n">
+        <v>2410.549</v>
+      </c>
+      <c r="XA12" t="n">
+        <v>2628.437</v>
+      </c>
+      <c r="XB12" t="n">
+        <v>2441.867</v>
+      </c>
+      <c r="XC12" t="n">
+        <v>2273.316</v>
+      </c>
+      <c r="XD12" t="n">
+        <v>2631.152</v>
+      </c>
+      <c r="XE12" t="n">
+        <v>3065.039</v>
       </c>
     </row>
     <row r="13">
@@ -22900,34 +23128,52 @@
         <v>5249.126</v>
       </c>
       <c r="WP13" t="n">
-        <v>4618.132</v>
+        <v>4650.584</v>
       </c>
       <c r="WQ13" t="n">
-        <v>3817.383</v>
+        <v>3873.071</v>
       </c>
       <c r="WR13" t="n">
-        <v>4186.923</v>
+        <v>4187.558</v>
       </c>
       <c r="WS13" t="n">
-        <v>4203.293</v>
+        <v>4292.733</v>
       </c>
       <c r="WT13" t="n">
-        <v>4447.36</v>
+        <v>4531.433</v>
       </c>
       <c r="WU13" t="n">
-        <v>4069.935</v>
+        <v>4132.808</v>
       </c>
       <c r="WV13" t="n">
-        <v>4291.944</v>
+        <v>4046.903</v>
       </c>
       <c r="WW13" t="n">
-        <v>3965.676</v>
+        <v>4016.954</v>
       </c>
       <c r="WX13" t="n">
-        <v>4377.442</v>
+        <v>4432.531</v>
       </c>
       <c r="WY13" t="n">
-        <v>3998.726</v>
+        <v>4001.884</v>
+      </c>
+      <c r="WZ13" t="n">
+        <v>4010.834</v>
+      </c>
+      <c r="XA13" t="n">
+        <v>4204.781</v>
+      </c>
+      <c r="XB13" t="n">
+        <v>3978.924</v>
+      </c>
+      <c r="XC13" t="n">
+        <v>3815.465</v>
+      </c>
+      <c r="XD13" t="n">
+        <v>4286.705</v>
+      </c>
+      <c r="XE13" t="n">
+        <v>4630.391</v>
       </c>
     </row>
     <row r="14">
@@ -24737,70 +24983,88 @@
         <v>493.463</v>
       </c>
       <c r="WD14" t="n">
-        <v>471.259</v>
+        <v>484.634</v>
       </c>
       <c r="WE14" t="n">
-        <v>493.332</v>
+        <v>506.612</v>
       </c>
       <c r="WF14" t="n">
-        <v>455.071</v>
+        <v>466.508</v>
       </c>
       <c r="WG14" t="n">
-        <v>387.847</v>
+        <v>399.265</v>
       </c>
       <c r="WH14" t="n">
-        <v>366.659</v>
+        <v>378.165</v>
       </c>
       <c r="WI14" t="n">
-        <v>345.09</v>
+        <v>357.248</v>
       </c>
       <c r="WJ14" t="n">
-        <v>355.827</v>
+        <v>369.845</v>
       </c>
       <c r="WK14" t="n">
-        <v>492.002</v>
+        <v>505.881</v>
       </c>
       <c r="WL14" t="n">
-        <v>473.091</v>
+        <v>488.051</v>
       </c>
       <c r="WM14" t="n">
-        <v>426.371</v>
+        <v>436.394</v>
       </c>
       <c r="WN14" t="n">
-        <v>426.612</v>
+        <v>437.987</v>
       </c>
       <c r="WO14" t="n">
-        <v>425.963</v>
+        <v>437.64</v>
       </c>
       <c r="WP14" t="n">
-        <v>358.41</v>
+        <v>382.464</v>
       </c>
       <c r="WQ14" t="n">
-        <v>378.703</v>
+        <v>403.982</v>
       </c>
       <c r="WR14" t="n">
-        <v>388.728</v>
+        <v>415.395</v>
       </c>
       <c r="WS14" t="n">
-        <v>366.977</v>
+        <v>390.069</v>
       </c>
       <c r="WT14" t="n">
-        <v>352.797</v>
+        <v>371.146</v>
       </c>
       <c r="WU14" t="n">
-        <v>353.367</v>
+        <v>371.08</v>
       </c>
       <c r="WV14" t="n">
-        <v>339.662</v>
+        <v>402.9</v>
       </c>
       <c r="WW14" t="n">
-        <v>389.58</v>
+        <v>426.024</v>
       </c>
       <c r="WX14" t="n">
-        <v>373.459</v>
+        <v>415.651</v>
       </c>
       <c r="WY14" t="n">
-        <v>377.767</v>
+        <v>370.579</v>
+      </c>
+      <c r="WZ14" t="n">
+        <v>391.892</v>
+      </c>
+      <c r="XA14" t="n">
+        <v>454.708</v>
+      </c>
+      <c r="XB14" t="n">
+        <v>370.86</v>
+      </c>
+      <c r="XC14" t="n">
+        <v>420.938</v>
+      </c>
+      <c r="XD14" t="n">
+        <v>488.202</v>
+      </c>
+      <c r="XE14" t="n">
+        <v>494.264</v>
       </c>
     </row>
     <row r="15">
@@ -26646,34 +26910,52 @@
         <v>2148.49</v>
       </c>
       <c r="WP15" t="n">
-        <v>1047.876</v>
+        <v>1154.592</v>
       </c>
       <c r="WQ15" t="n">
-        <v>1027.283</v>
+        <v>1133.991</v>
       </c>
       <c r="WR15" t="n">
-        <v>1074.988</v>
+        <v>1180.526</v>
       </c>
       <c r="WS15" t="n">
-        <v>1077.958</v>
+        <v>1131.331</v>
       </c>
       <c r="WT15" t="n">
-        <v>1092.602</v>
+        <v>1105.098</v>
       </c>
       <c r="WU15" t="n">
-        <v>1139.581</v>
+        <v>1289.728</v>
       </c>
       <c r="WV15" t="n">
-        <v>579.026</v>
+        <v>1375.3</v>
       </c>
       <c r="WW15" t="n">
-        <v>1352.777</v>
+        <v>1366.139</v>
       </c>
       <c r="WX15" t="n">
-        <v>1459.408</v>
+        <v>475.345</v>
       </c>
       <c r="WY15" t="n">
-        <v>1364.594</v>
+        <v>1311.733</v>
+      </c>
+      <c r="WZ15" t="n">
+        <v>1374.939</v>
+      </c>
+      <c r="XA15" t="n">
+        <v>1353.52</v>
+      </c>
+      <c r="XB15" t="n">
+        <v>1479.767</v>
+      </c>
+      <c r="XC15" t="n">
+        <v>1278.026</v>
+      </c>
+      <c r="XD15" t="n">
+        <v>1533.356</v>
+      </c>
+      <c r="XE15" t="n">
+        <v>1435.435</v>
       </c>
     </row>
     <row r="16">
@@ -28519,34 +28801,52 @@
         <v>31.609</v>
       </c>
       <c r="WP16" t="n">
-        <v>22.555</v>
+        <v>9.679</v>
       </c>
       <c r="WQ16" t="n">
-        <v>18.008</v>
+        <v>70.42</v>
       </c>
       <c r="WR16" t="n">
-        <v>23.582</v>
+        <v>10.927</v>
       </c>
       <c r="WS16" t="n">
-        <v>13.503</v>
+        <v>1.343</v>
       </c>
       <c r="WT16" t="n">
-        <v>7.689</v>
+        <v>-4.972</v>
       </c>
       <c r="WU16" t="n">
-        <v>14.606</v>
+        <v>2.731</v>
       </c>
       <c r="WV16" t="n">
-        <v>-26.217</v>
+        <v>-2.391</v>
       </c>
       <c r="WW16" t="n">
-        <v>7.736</v>
+        <v>-7.521</v>
       </c>
       <c r="WX16" t="n">
-        <v>8.234</v>
+        <v>-8.037000000000001</v>
       </c>
       <c r="WY16" t="n">
-        <v>3.554</v>
+        <v>-17.896</v>
+      </c>
+      <c r="WZ16" t="n">
+        <v>-19.301</v>
+      </c>
+      <c r="XA16" t="n">
+        <v>-15.967</v>
+      </c>
+      <c r="XB16" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="XC16" t="n">
+        <v>-18.551</v>
+      </c>
+      <c r="XD16" t="n">
+        <v>-27.063</v>
+      </c>
+      <c r="XE16" t="n">
+        <v>-32.65</v>
       </c>
     </row>
     <row r="17">
@@ -30392,34 +30692,52 @@
         <v>547.226</v>
       </c>
       <c r="WP17" t="n">
-        <v>-64.322</v>
+        <v>-20.303</v>
       </c>
       <c r="WQ17" t="n">
-        <v>563.679</v>
+        <v>568.546</v>
       </c>
       <c r="WR17" t="n">
-        <v>721.3579999999999</v>
+        <v>736.086</v>
       </c>
       <c r="WS17" t="n">
-        <v>558.936</v>
+        <v>585.146</v>
       </c>
       <c r="WT17" t="n">
-        <v>-911.204</v>
+        <v>-889.285</v>
       </c>
       <c r="WU17" t="n">
-        <v>-100.627</v>
+        <v>-87.636</v>
       </c>
       <c r="WV17" t="n">
-        <v>-562.713</v>
+        <v>-610.83</v>
       </c>
       <c r="WW17" t="n">
-        <v>626.385</v>
+        <v>505.034</v>
       </c>
       <c r="WX17" t="n">
-        <v>369.528</v>
+        <v>319.147</v>
       </c>
       <c r="WY17" t="n">
-        <v>-979.5890000000001</v>
+        <v>-1034.004</v>
+      </c>
+      <c r="WZ17" t="n">
+        <v>-704.335</v>
+      </c>
+      <c r="XA17" t="n">
+        <v>903.8680000000001</v>
+      </c>
+      <c r="XB17" t="n">
+        <v>-440.163</v>
+      </c>
+      <c r="XC17" t="n">
+        <v>782.798</v>
+      </c>
+      <c r="XD17" t="n">
+        <v>1028.8</v>
+      </c>
+      <c r="XE17" t="n">
+        <v>262.945</v>
       </c>
     </row>
     <row r="18">
@@ -32265,34 +32583,52 @@
         <v>2760.347</v>
       </c>
       <c r="WP18" t="n">
-        <v>1037.949</v>
+        <v>1175.416</v>
       </c>
       <c r="WQ18" t="n">
-        <v>1636.639</v>
+        <v>1799.644</v>
       </c>
       <c r="WR18" t="n">
-        <v>1848.875</v>
+        <v>1956.576</v>
       </c>
       <c r="WS18" t="n">
-        <v>1679.306</v>
+        <v>1746.725</v>
       </c>
       <c r="WT18" t="n">
-        <v>219.026</v>
+        <v>240.811</v>
       </c>
       <c r="WU18" t="n">
-        <v>1082.847</v>
+        <v>1234.199</v>
       </c>
       <c r="WV18" t="n">
-        <v>21.83</v>
+        <v>793.8200000000001</v>
       </c>
       <c r="WW18" t="n">
-        <v>2019.343</v>
+        <v>1896.099</v>
       </c>
       <c r="WX18" t="n">
-        <v>1869.052</v>
+        <v>818.338</v>
       </c>
       <c r="WY18" t="n">
-        <v>421.479</v>
+        <v>292.573</v>
+      </c>
+      <c r="WZ18" t="n">
+        <v>683.3819999999999</v>
+      </c>
+      <c r="XA18" t="n">
+        <v>2274.988</v>
+      </c>
+      <c r="XB18" t="n">
+        <v>1056.709</v>
+      </c>
+      <c r="XC18" t="n">
+        <v>2075.988</v>
+      </c>
+      <c r="XD18" t="n">
+        <v>2577.302</v>
+      </c>
+      <c r="XE18" t="n">
+        <v>1711.15</v>
       </c>
     </row>
     <row r="19">
@@ -34102,70 +34438,88 @@
         <v>140.467</v>
       </c>
       <c r="WD19" t="n">
-        <v>170.129</v>
+        <v>170.069</v>
       </c>
       <c r="WE19" t="n">
-        <v>152.389</v>
+        <v>152.728</v>
       </c>
       <c r="WF19" t="n">
-        <v>43.454</v>
+        <v>43.294</v>
       </c>
       <c r="WG19" t="n">
-        <v>51.489</v>
+        <v>51.408</v>
       </c>
       <c r="WH19" t="n">
-        <v>66.791</v>
+        <v>66.708</v>
       </c>
       <c r="WI19" t="n">
-        <v>117.738</v>
+        <v>117.842</v>
       </c>
       <c r="WJ19" t="n">
-        <v>151.519</v>
+        <v>150.855</v>
       </c>
       <c r="WK19" t="n">
-        <v>110.86</v>
+        <v>110.284</v>
       </c>
       <c r="WL19" t="n">
-        <v>124.595</v>
+        <v>124.024</v>
       </c>
       <c r="WM19" t="n">
-        <v>167.184</v>
+        <v>170.894</v>
       </c>
       <c r="WN19" t="n">
-        <v>139.907</v>
+        <v>142.203</v>
       </c>
       <c r="WO19" t="n">
-        <v>128.074</v>
+        <v>129.817</v>
       </c>
       <c r="WP19" t="n">
-        <v>165.439</v>
+        <v>172.284</v>
       </c>
       <c r="WQ19" t="n">
-        <v>144.459</v>
+        <v>150.259</v>
       </c>
       <c r="WR19" t="n">
-        <v>113.302</v>
+        <v>117.506</v>
       </c>
       <c r="WS19" t="n">
-        <v>140.255</v>
+        <v>147.791</v>
       </c>
       <c r="WT19" t="n">
-        <v>157.822</v>
+        <v>171.683</v>
       </c>
       <c r="WU19" t="n">
-        <v>160.969</v>
+        <v>174.923</v>
       </c>
       <c r="WV19" t="n">
-        <v>177.249</v>
+        <v>159.975</v>
       </c>
       <c r="WW19" t="n">
-        <v>135.241</v>
+        <v>146.053</v>
       </c>
       <c r="WX19" t="n">
-        <v>150.514</v>
+        <v>156.238</v>
       </c>
       <c r="WY19" t="n">
-        <v>168.681</v>
+        <v>208.335</v>
+      </c>
+      <c r="WZ19" t="n">
+        <v>200.16</v>
+      </c>
+      <c r="XA19" t="n">
+        <v>145.004</v>
+      </c>
+      <c r="XB19" t="n">
+        <v>230.912</v>
+      </c>
+      <c r="XC19" t="n">
+        <v>180.605</v>
+      </c>
+      <c r="XD19" t="n">
+        <v>134.454</v>
+      </c>
+      <c r="XE19" t="n">
+        <v>137.183</v>
       </c>
     </row>
     <row r="20">
@@ -36011,34 +36365,52 @@
         <v>343.921</v>
       </c>
       <c r="WP20" t="n">
-        <v>209.385</v>
+        <v>101.258</v>
       </c>
       <c r="WQ20" t="n">
-        <v>209.181</v>
+        <v>101.062</v>
       </c>
       <c r="WR20" t="n">
-        <v>209.262</v>
+        <v>101.306</v>
       </c>
       <c r="WS20" t="n">
-        <v>178.669</v>
+        <v>184.999</v>
       </c>
       <c r="WT20" t="n">
-        <v>159.776</v>
+        <v>206.717</v>
       </c>
       <c r="WU20" t="n">
-        <v>158.204</v>
+        <v>54.933</v>
       </c>
       <c r="WV20" t="n">
-        <v>1140.515</v>
+        <v>-60.959</v>
       </c>
       <c r="WW20" t="n">
-        <v>-98.73999999999999</v>
+        <v>-57.917</v>
       </c>
       <c r="WX20" t="n">
-        <v>-109.572</v>
+        <v>927.121</v>
       </c>
       <c r="WY20" t="n">
-        <v>-122.011</v>
+        <v>-75.63500000000001</v>
+      </c>
+      <c r="WZ20" t="n">
+        <v>-73.447</v>
+      </c>
+      <c r="XA20" t="n">
+        <v>-75.664</v>
+      </c>
+      <c r="XB20" t="n">
+        <v>-242.464</v>
+      </c>
+      <c r="XC20" t="n">
+        <v>-41.014</v>
+      </c>
+      <c r="XD20" t="n">
+        <v>-185.487</v>
+      </c>
+      <c r="XE20" t="n">
+        <v>-181.538</v>
       </c>
     </row>
     <row r="21">
@@ -37884,34 +38256,52 @@
         <v>219.134</v>
       </c>
       <c r="WP21" t="n">
-        <v>238.85</v>
+        <v>240.987</v>
       </c>
       <c r="WQ21" t="n">
-        <v>244.436</v>
+        <v>246.136</v>
       </c>
       <c r="WR21" t="n">
-        <v>238.269</v>
+        <v>239.965</v>
       </c>
       <c r="WS21" t="n">
-        <v>235.568</v>
+        <v>248.852</v>
       </c>
       <c r="WT21" t="n">
-        <v>243.916</v>
+        <v>257.562</v>
       </c>
       <c r="WU21" t="n">
-        <v>233.363</v>
+        <v>246.43</v>
       </c>
       <c r="WV21" t="n">
-        <v>147.27</v>
+        <v>263.068</v>
       </c>
       <c r="WW21" t="n">
-        <v>257.609</v>
+        <v>266.612</v>
       </c>
       <c r="WX21" t="n">
-        <v>257.654</v>
+        <v>267.129</v>
       </c>
       <c r="WY21" t="n">
-        <v>267.741</v>
+        <v>283.207</v>
+      </c>
+      <c r="WZ21" t="n">
+        <v>286.015</v>
+      </c>
+      <c r="XA21" t="n">
+        <v>280.888</v>
+      </c>
+      <c r="XB21" t="n">
+        <v>282.649</v>
+      </c>
+      <c r="XC21" t="n">
+        <v>289.973</v>
+      </c>
+      <c r="XD21" t="n">
+        <v>292.539</v>
+      </c>
+      <c r="XE21" t="n">
+        <v>298.685</v>
       </c>
     </row>
     <row r="22">
@@ -39757,34 +40147,52 @@
         <v>1925.723</v>
       </c>
       <c r="WP22" t="n">
-        <v>3131.949</v>
+        <v>3132.922</v>
       </c>
       <c r="WQ22" t="n">
-        <v>1727.127</v>
+        <v>1726.229</v>
       </c>
       <c r="WR22" t="n">
-        <v>1890.517</v>
+        <v>1889.712</v>
       </c>
       <c r="WS22" t="n">
-        <v>2109.75</v>
+        <v>2112.157</v>
       </c>
       <c r="WT22" t="n">
-        <v>3824.642</v>
+        <v>3826.344</v>
       </c>
       <c r="WU22" t="n">
-        <v>2595.521</v>
+        <v>2597.247</v>
       </c>
       <c r="WV22" t="n">
-        <v>2982.329</v>
+        <v>3050.974</v>
       </c>
       <c r="WW22" t="n">
-        <v>1787.465</v>
+        <v>1912.16</v>
       </c>
       <c r="WX22" t="n">
-        <v>2360.307</v>
+        <v>2419.944</v>
       </c>
       <c r="WY22" t="n">
-        <v>3431.517</v>
+        <v>3501.739</v>
+      </c>
+      <c r="WZ22" t="n">
+        <v>3114.883</v>
+      </c>
+      <c r="XA22" t="n">
+        <v>1724.569</v>
+      </c>
+      <c r="XB22" t="n">
+        <v>2882.03</v>
+      </c>
+      <c r="XC22" t="n">
+        <v>1490.517</v>
+      </c>
+      <c r="XD22" t="n">
+        <v>1602.351</v>
+      </c>
+      <c r="XE22" t="n">
+        <v>2802.094</v>
       </c>
     </row>
     <row r="23">
@@ -41630,34 +42038,52 @@
         <v>2488.778</v>
       </c>
       <c r="WP23" t="n">
-        <v>3580.183</v>
+        <v>3475.167</v>
       </c>
       <c r="WQ23" t="n">
-        <v>2180.744</v>
+        <v>2073.427</v>
       </c>
       <c r="WR23" t="n">
-        <v>2338.048</v>
+        <v>2230.982</v>
       </c>
       <c r="WS23" t="n">
-        <v>2523.987</v>
+        <v>2546.008</v>
       </c>
       <c r="WT23" t="n">
-        <v>4228.334</v>
+        <v>4290.623</v>
       </c>
       <c r="WU23" t="n">
-        <v>2987.088</v>
+        <v>2898.61</v>
       </c>
       <c r="WV23" t="n">
-        <v>4270.114</v>
+        <v>3253.083</v>
       </c>
       <c r="WW23" t="n">
-        <v>1946.333</v>
+        <v>2120.855</v>
       </c>
       <c r="WX23" t="n">
-        <v>2508.39</v>
+        <v>3614.193</v>
       </c>
       <c r="WY23" t="n">
-        <v>3577.247</v>
+        <v>3709.311</v>
+      </c>
+      <c r="WZ23" t="n">
+        <v>3327.452</v>
+      </c>
+      <c r="XA23" t="n">
+        <v>1929.793</v>
+      </c>
+      <c r="XB23" t="n">
+        <v>2922.215</v>
+      </c>
+      <c r="XC23" t="n">
+        <v>1739.476</v>
+      </c>
+      <c r="XD23" t="n">
+        <v>1709.403</v>
+      </c>
+      <c r="XE23" t="n">
+        <v>2919.242</v>
       </c>
     </row>
     <row r="24">
@@ -42639,184 +43065,184 @@
         <v>750.718</v>
       </c>
       <c r="TV24" t="n">
-        <v>390.427</v>
+        <v>391.876</v>
       </c>
       <c r="TW24" t="n">
-        <v>-245.085</v>
+        <v>-243.636</v>
       </c>
       <c r="TX24" t="n">
-        <v>-2129.911</v>
+        <v>-2128.462</v>
       </c>
       <c r="TY24" t="n">
-        <v>1640.159</v>
+        <v>1641.608</v>
       </c>
       <c r="TZ24" t="n">
-        <v>-116.958</v>
+        <v>-115.509</v>
       </c>
       <c r="UA24" t="n">
-        <v>-886.881</v>
+        <v>-885.432</v>
       </c>
       <c r="UB24" t="n">
-        <v>-326.47</v>
+        <v>-325.021</v>
       </c>
       <c r="UC24" t="n">
-        <v>-79.749</v>
+        <v>-78.301</v>
       </c>
       <c r="UD24" t="n">
-        <v>359.508</v>
+        <v>360.957</v>
       </c>
       <c r="UE24" t="n">
-        <v>786.954</v>
+        <v>788.403</v>
       </c>
       <c r="UF24" t="n">
-        <v>292.931</v>
+        <v>294.38</v>
       </c>
       <c r="UG24" t="n">
-        <v>857.742</v>
+        <v>859.191</v>
       </c>
       <c r="UH24" t="n">
-        <v>1093.234</v>
+        <v>1092.67</v>
       </c>
       <c r="UI24" t="n">
-        <v>1024.833</v>
+        <v>1024.27</v>
       </c>
       <c r="UJ24" t="n">
-        <v>116.803</v>
+        <v>116.24</v>
       </c>
       <c r="UK24" t="n">
-        <v>882.373</v>
+        <v>881.809</v>
       </c>
       <c r="UL24" t="n">
-        <v>-632.12</v>
+        <v>-632.683</v>
       </c>
       <c r="UM24" t="n">
-        <v>-307.566</v>
+        <v>-308.13</v>
       </c>
       <c r="UN24" t="n">
-        <v>1052.615</v>
+        <v>1052.051</v>
       </c>
       <c r="UO24" t="n">
-        <v>-436.864</v>
+        <v>-437.427</v>
       </c>
       <c r="UP24" t="n">
-        <v>107.293</v>
+        <v>106.73</v>
       </c>
       <c r="UQ24" t="n">
-        <v>390.094</v>
+        <v>389.531</v>
       </c>
       <c r="UR24" t="n">
-        <v>213.852</v>
+        <v>213.289</v>
       </c>
       <c r="US24" t="n">
-        <v>-1110.295</v>
+        <v>-1110.858</v>
       </c>
       <c r="UT24" t="n">
-        <v>401.075</v>
+        <v>384.579</v>
       </c>
       <c r="UU24" t="n">
-        <v>-585.356</v>
+        <v>-601.852</v>
       </c>
       <c r="UV24" t="n">
-        <v>-51.916</v>
+        <v>-68.41200000000001</v>
       </c>
       <c r="UW24" t="n">
-        <v>39.618</v>
+        <v>23.122</v>
       </c>
       <c r="UX24" t="n">
-        <v>-448.819</v>
+        <v>-465.315</v>
       </c>
       <c r="UY24" t="n">
-        <v>695.288</v>
+        <v>678.792</v>
       </c>
       <c r="UZ24" t="n">
-        <v>-98.041</v>
+        <v>-114.536</v>
       </c>
       <c r="VA24" t="n">
-        <v>-869.751</v>
+        <v>-886.247</v>
       </c>
       <c r="VB24" t="n">
-        <v>-194.564</v>
+        <v>-211.06</v>
       </c>
       <c r="VC24" t="n">
-        <v>-1727.686</v>
+        <v>-1744.182</v>
       </c>
       <c r="VD24" t="n">
-        <v>-1871.894</v>
+        <v>-1888.39</v>
       </c>
       <c r="VE24" t="n">
-        <v>-113.011</v>
+        <v>-129.507</v>
       </c>
       <c r="VF24" t="n">
-        <v>11.981</v>
+        <v>6.334</v>
       </c>
       <c r="VG24" t="n">
-        <v>-625.965</v>
+        <v>-631.612</v>
       </c>
       <c r="VH24" t="n">
-        <v>-43.593</v>
+        <v>-49.24</v>
       </c>
       <c r="VI24" t="n">
-        <v>-448.689</v>
+        <v>-454.336</v>
       </c>
       <c r="VJ24" t="n">
-        <v>-750.128</v>
+        <v>-755.775</v>
       </c>
       <c r="VK24" t="n">
-        <v>-627.676</v>
+        <v>-633.323</v>
       </c>
       <c r="VL24" t="n">
-        <v>-760.982</v>
+        <v>-766.629</v>
       </c>
       <c r="VM24" t="n">
-        <v>-926.9109999999999</v>
+        <v>-932.558</v>
       </c>
       <c r="VN24" t="n">
-        <v>-438.228</v>
+        <v>-443.875</v>
       </c>
       <c r="VO24" t="n">
-        <v>-732.377</v>
+        <v>-738.024</v>
       </c>
       <c r="VP24" t="n">
-        <v>-346.736</v>
+        <v>-352.382</v>
       </c>
       <c r="VQ24" t="n">
-        <v>338.081</v>
+        <v>332.434</v>
       </c>
       <c r="VR24" t="n">
-        <v>-22.814</v>
+        <v>-17.298</v>
       </c>
       <c r="VS24" t="n">
-        <v>-8.444000000000001</v>
+        <v>-2.928</v>
       </c>
       <c r="VT24" t="n">
-        <v>174.519</v>
+        <v>180.035</v>
       </c>
       <c r="VU24" t="n">
-        <v>116.838</v>
+        <v>122.354</v>
       </c>
       <c r="VV24" t="n">
-        <v>229.363</v>
+        <v>234.879</v>
       </c>
       <c r="VW24" t="n">
-        <v>126.186</v>
+        <v>131.702</v>
       </c>
       <c r="VX24" t="n">
-        <v>304.591</v>
+        <v>310.107</v>
       </c>
       <c r="VY24" t="n">
-        <v>159.46</v>
+        <v>164.976</v>
       </c>
       <c r="VZ24" t="n">
-        <v>-120.118</v>
+        <v>-114.602</v>
       </c>
       <c r="WA24" t="n">
-        <v>-490.97</v>
+        <v>-485.453</v>
       </c>
       <c r="WB24" t="n">
-        <v>152.456</v>
+        <v>157.972</v>
       </c>
       <c r="WC24" t="n">
-        <v>-30.277</v>
+        <v>-24.761</v>
       </c>
       <c r="WD24" t="n">
         <v>560.8869999999999</v>
@@ -42855,34 +43281,52 @@
         <v>-86.577</v>
       </c>
       <c r="WP24" t="n">
-        <v>-424.025</v>
+        <v>-382.948</v>
       </c>
       <c r="WQ24" t="n">
-        <v>-536.765</v>
+        <v>-529.427</v>
       </c>
       <c r="WR24" t="n">
-        <v>124.865</v>
+        <v>53.926</v>
       </c>
       <c r="WS24" t="n">
-        <v>-388.051</v>
+        <v>-453.679</v>
       </c>
       <c r="WT24" t="n">
-        <v>58.289</v>
+        <v>-324.522</v>
       </c>
       <c r="WU24" t="n">
-        <v>-141.572</v>
+        <v>80.943</v>
       </c>
       <c r="WV24" t="n">
-        <v>563.671</v>
+        <v>439.093</v>
       </c>
       <c r="WW24" t="n">
-        <v>-364.875</v>
+        <v>-136.607</v>
       </c>
       <c r="WX24" t="n">
-        <v>-348.414</v>
+        <v>-379.921</v>
       </c>
       <c r="WY24" t="n">
-        <v>439.15</v>
+        <v>152.377</v>
+      </c>
+      <c r="WZ24" t="n">
+        <v>379.707</v>
+      </c>
+      <c r="XA24" t="n">
+        <v>1095.439</v>
+      </c>
+      <c r="XB24" t="n">
+        <v>-7747.325</v>
+      </c>
+      <c r="XC24" t="n">
+        <v>-305.941</v>
+      </c>
+      <c r="XD24" t="n">
+        <v>756.947</v>
+      </c>
+      <c r="XE24" t="n">
+        <v>1029.854</v>
       </c>
     </row>
     <row r="25">
@@ -44109,6 +44553,24 @@
       <c r="WY25" t="n">
         <v>91.49299999999999</v>
       </c>
+      <c r="WZ25" t="n">
+        <v>-178.614</v>
+      </c>
+      <c r="XA25" t="n">
+        <v>-269.35</v>
+      </c>
+      <c r="XB25" t="n">
+        <v>258.136</v>
+      </c>
+      <c r="XC25" t="n">
+        <v>-104.31</v>
+      </c>
+      <c r="XD25" t="n">
+        <v>9.052</v>
+      </c>
+      <c r="XE25" t="n">
+        <v>-285.249</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -45334,6 +45796,24 @@
       <c r="WY26" t="n">
         <v>20.592</v>
       </c>
+      <c r="WZ26" t="n">
+        <v>18.606</v>
+      </c>
+      <c r="XA26" t="n">
+        <v>37.197</v>
+      </c>
+      <c r="XB26" t="n">
+        <v>13.519</v>
+      </c>
+      <c r="XC26" t="n">
+        <v>23.788</v>
+      </c>
+      <c r="XD26" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="XE26" t="n">
+        <v>20.155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
